--- a/outcome/appendix/data/PHSMs/Rubella.xlsx
+++ b/outcome/appendix/data/PHSMs/Rubella.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,7 +38,16 @@
     <t xml:space="preserve">value</t>
   </si>
   <si>
+    <t xml:space="preserve">diff</t>
+  </si>
+  <si>
+    <t xml:space="preserve">color</t>
+  </si>
+  <si>
     <t xml:space="preserve">风疹</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Decrease</t>
   </si>
 </sst>
 </file>
@@ -403,6 +412,12 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -424,10 +439,16 @@
         <v>2630.72708930052</v>
       </c>
       <c r="G2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H2" t="n">
         <v>1199</v>
+      </c>
+      <c r="I2" t="n">
+        <v>523.50748368523</v>
+      </c>
+      <c r="J2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="3">
@@ -450,10 +471,16 @@
         <v>2768.23183022718</v>
       </c>
       <c r="G3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H3" t="n">
         <v>306</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1267.7547520467</v>
+      </c>
+      <c r="J3" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="4">
@@ -476,10 +503,16 @@
         <v>9732.80453239918</v>
       </c>
       <c r="G4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H4" t="n">
         <v>197</v>
+      </c>
+      <c r="I4" t="n">
+        <v>4803.35717921842</v>
+      </c>
+      <c r="J4" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="5">
@@ -502,10 +535,16 @@
         <v>18401.3286357722</v>
       </c>
       <c r="G5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H5" t="n">
         <v>116</v>
+      </c>
+      <c r="I5" t="n">
+        <v>8593.16575577456</v>
+      </c>
+      <c r="J5" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="6">
@@ -528,10 +567,16 @@
         <v>22031.3846043282</v>
       </c>
       <c r="G6" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H6" t="n">
         <v>90</v>
+      </c>
+      <c r="I6" t="n">
+        <v>9627.02457056929</v>
+      </c>
+      <c r="J6" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="7">
@@ -554,10 +599,16 @@
         <v>13292.0004860799</v>
       </c>
       <c r="G7" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H7" t="n">
         <v>114</v>
+      </c>
+      <c r="I7" t="n">
+        <v>5391.56319948048</v>
+      </c>
+      <c r="J7" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="8">
@@ -580,10 +631,16 @@
         <v>6363.48767434909</v>
       </c>
       <c r="G8" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H8" t="n">
         <v>96</v>
+      </c>
+      <c r="I8" t="n">
+        <v>2393.08076783683</v>
+      </c>
+      <c r="J8" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="9">
@@ -606,10 +663,16 @@
         <v>3334.12260201304</v>
       </c>
       <c r="G9" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H9" t="n">
         <v>82</v>
+      </c>
+      <c r="I9" t="n">
+        <v>1154.72874640402</v>
+      </c>
+      <c r="J9" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="10">
@@ -632,10 +695,16 @@
         <v>2891.3950353356</v>
       </c>
       <c r="G10" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H10" t="n">
         <v>102</v>
+      </c>
+      <c r="I10" t="n">
+        <v>918.384727022687</v>
+      </c>
+      <c r="J10" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="11">
@@ -658,10 +727,16 @@
         <v>3227.25248782056</v>
       </c>
       <c r="G11" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H11" t="n">
         <v>157</v>
+      </c>
+      <c r="I11" t="n">
+        <v>929.38153310003</v>
+      </c>
+      <c r="J11" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="12">
@@ -684,10 +759,16 @@
         <v>3942.73102514626</v>
       </c>
       <c r="G12" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H12" t="n">
         <v>276</v>
+      </c>
+      <c r="I12" t="n">
+        <v>992.699259157991</v>
+      </c>
+      <c r="J12" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="13">
@@ -710,10 +791,16 @@
         <v>5575.62268134321</v>
       </c>
       <c r="G13" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H13" t="n">
         <v>104</v>
+      </c>
+      <c r="I13" t="n">
+        <v>1614.01420378355</v>
+      </c>
+      <c r="J13" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="14">
@@ -736,10 +823,16 @@
         <v>5829.43679573668</v>
       </c>
       <c r="G14" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H14" t="n">
         <v>127</v>
+      </c>
+      <c r="I14" t="n">
+        <v>1595.52003769654</v>
+      </c>
+      <c r="J14" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="15">
@@ -762,10 +855,16 @@
         <v>5546.99321451584</v>
       </c>
       <c r="G15" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H15" t="n">
         <v>46</v>
+      </c>
+      <c r="I15" t="n">
+        <v>1527.76622191557</v>
+      </c>
+      <c r="J15" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="16">
@@ -788,10 +887,16 @@
         <v>18336.6046222211</v>
       </c>
       <c r="G16" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H16" t="n">
         <v>82</v>
+      </c>
+      <c r="I16" t="n">
+        <v>4918.39362291529</v>
+      </c>
+      <c r="J16" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="17">
@@ -814,10 +919,16 @@
         <v>33197.0171488173</v>
       </c>
       <c r="G17" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H17" t="n">
         <v>107</v>
+      </c>
+      <c r="I17" t="n">
+        <v>8602.22923007958</v>
+      </c>
+      <c r="J17" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="18">
@@ -840,10 +951,16 @@
         <v>38469.9566221305</v>
       </c>
       <c r="G18" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H18" t="n">
         <v>187</v>
+      </c>
+      <c r="I18" t="n">
+        <v>9530.0953903698</v>
+      </c>
+      <c r="J18" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="19">
@@ -866,10 +983,16 @@
         <v>22623.6440635325</v>
       </c>
       <c r="G19" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H19" t="n">
         <v>115</v>
+      </c>
+      <c r="I19" t="n">
+        <v>5390.60332522934</v>
+      </c>
+      <c r="J19" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="20">
@@ -892,10 +1015,16 @@
         <v>10610.0398614239</v>
       </c>
       <c r="G20" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H20" t="n">
         <v>102</v>
+      </c>
+      <c r="I20" t="n">
+        <v>2387.09890880192</v>
+      </c>
+      <c r="J20" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="21">
@@ -918,10 +1047,16 @@
         <v>5465.71738801127</v>
       </c>
       <c r="G21" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H21" t="n">
         <v>68</v>
+      </c>
+      <c r="I21" t="n">
+        <v>1168.73775995364</v>
+      </c>
+      <c r="J21" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="22">
@@ -944,10 +1079,16 @@
         <v>4673.44241359388</v>
       </c>
       <c r="G22" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H22" t="n">
         <v>90</v>
+      </c>
+      <c r="I22" t="n">
+        <v>930.39216380977</v>
+      </c>
+      <c r="J22" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="23">
@@ -970,10 +1111,16 @@
         <v>5154.48599184617</v>
       </c>
       <c r="G23" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H23" t="n">
         <v>101</v>
+      </c>
+      <c r="I23" t="n">
+        <v>985.389450886272</v>
+      </c>
+      <c r="J23" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="24">
@@ -996,10 +1143,16 @@
         <v>6233.65328122768</v>
       </c>
       <c r="G24" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H24" t="n">
         <v>119</v>
+      </c>
+      <c r="I24" t="n">
+        <v>1149.7085057157</v>
+      </c>
+      <c r="J24" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="25">
@@ -1022,10 +1175,16 @@
         <v>8738.98615652119</v>
       </c>
       <c r="G25" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H25" t="n">
         <v>158</v>
+      </c>
+      <c r="I25" t="n">
+        <v>1560.02672504686</v>
+      </c>
+      <c r="J25" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="26">
@@ -1048,10 +1207,16 @@
         <v>9068.53621727756</v>
       </c>
       <c r="G26" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H26" t="n">
         <v>70</v>
+      </c>
+      <c r="I26" t="n">
+        <v>1652.53259179935</v>
+      </c>
+      <c r="J26" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="27">
@@ -1074,10 +1239,16 @@
         <v>8573.31709881035</v>
       </c>
       <c r="G27" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H27" t="n">
         <v>55</v>
+      </c>
+      <c r="I27" t="n">
+        <v>1518.77769186803</v>
+      </c>
+      <c r="J27" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="28">
@@ -1100,10 +1271,16 @@
         <v>28181.3050541297</v>
       </c>
       <c r="G28" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H28" t="n">
         <v>98</v>
+      </c>
+      <c r="I28" t="n">
+        <v>4902.43006687777</v>
+      </c>
+      <c r="J28" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="29">
@@ -1126,10 +1303,16 @@
         <v>50770.1625498109</v>
       </c>
       <c r="G29" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H29" t="n">
         <v>97</v>
+      </c>
+      <c r="I29" t="n">
+        <v>8612.29270484721</v>
+      </c>
+      <c r="J29" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="30">
@@ -1152,10 +1335,16 @@
         <v>58582.9000545372</v>
       </c>
       <c r="G30" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H30" t="n">
         <v>155</v>
+      </c>
+      <c r="I30" t="n">
+        <v>9562.16621068647</v>
+      </c>
+      <c r="J30" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="31">
@@ -1178,10 +1367,16 @@
         <v>34323.1715927015</v>
       </c>
       <c r="G31" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H31" t="n">
         <v>167</v>
+      </c>
+      <c r="I31" t="n">
+        <v>5338.64345127063</v>
+      </c>
+      <c r="J31" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="32">
@@ -1204,10 +1399,16 @@
         <v>16044.3895507042</v>
       </c>
       <c r="G32" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H32" t="n">
         <v>106</v>
+      </c>
+      <c r="I32" t="n">
+        <v>2383.11704989922</v>
+      </c>
+      <c r="J32" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="33">
@@ -1230,10 +1431,16 @@
         <v>8241.66137947613</v>
       </c>
       <c r="G33" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H33" t="n">
         <v>128</v>
+      </c>
+      <c r="I33" t="n">
+        <v>1108.74677356895</v>
+      </c>
+      <c r="J33" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="34">
@@ -1256,10 +1463,16 @@
         <v>7029.4974001989</v>
       </c>
       <c r="G34" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H34" t="n">
         <v>98</v>
+      </c>
+      <c r="I34" t="n">
+        <v>922.399600651055</v>
+      </c>
+      <c r="J34" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="35">
@@ -1282,10 +1495,16 @@
         <v>7736.2826316411</v>
       </c>
       <c r="G35" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H35" t="n">
         <v>118</v>
+      </c>
+      <c r="I35" t="n">
+        <v>968.39736873022</v>
+      </c>
+      <c r="J35" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="36">
@@ -1308,10 +1527,16 @@
         <v>9338.41135469543</v>
       </c>
       <c r="G36" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H36" t="n">
         <v>120</v>
+      </c>
+      <c r="I36" t="n">
+        <v>1148.7177523408</v>
+      </c>
+      <c r="J36" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/outcome/appendix/data/PHSMs/Rubella.xlsx
+++ b/outcome/appendix/data/PHSMs/Rubella.xlsx
@@ -424,19 +424,19 @@
         <v>43831</v>
       </c>
       <c r="B2" t="n">
-        <v>1722.50748368523</v>
+        <v>1737.21164884855</v>
       </c>
       <c r="C2" t="n">
-        <v>1128.65460342033</v>
+        <v>-1517.32922800779</v>
       </c>
       <c r="D2" t="n">
-        <v>814.287878069938</v>
+        <v>-3398.5697993056</v>
       </c>
       <c r="E2" t="n">
-        <v>2316.36036395013</v>
+        <v>5763.37555921062</v>
       </c>
       <c r="F2" t="n">
-        <v>2630.72708930052</v>
+        <v>7216.50016456256</v>
       </c>
       <c r="G2" t="s">
         <v>10</v>
@@ -445,7 +445,7 @@
         <v>1199</v>
       </c>
       <c r="I2" t="n">
-        <v>523.50748368523</v>
+        <v>538.211648848552</v>
       </c>
       <c r="J2" t="s">
         <v>11</v>
@@ -456,19 +456,19 @@
         <v>43862</v>
       </c>
       <c r="B3" t="n">
-        <v>1573.7547520467</v>
+        <v>2081.33132043844</v>
       </c>
       <c r="C3" t="n">
-        <v>792.728171138095</v>
+        <v>-3239.7691280244</v>
       </c>
       <c r="D3" t="n">
-        <v>379.277673866225</v>
+        <v>-5674.99618026761</v>
       </c>
       <c r="E3" t="n">
-        <v>2354.78133295532</v>
+        <v>7592.77790373592</v>
       </c>
       <c r="F3" t="n">
-        <v>2768.23183022718</v>
+        <v>10822.682113154</v>
       </c>
       <c r="G3" t="s">
         <v>10</v>
@@ -477,7 +477,7 @@
         <v>306</v>
       </c>
       <c r="I3" t="n">
-        <v>1267.7547520467</v>
+        <v>1775.33132043844</v>
       </c>
       <c r="J3" t="s">
         <v>11</v>
@@ -488,19 +488,19 @@
         <v>43891</v>
       </c>
       <c r="B4" t="n">
-        <v>5000.35717921842</v>
+        <v>4904.33354001748</v>
       </c>
       <c r="C4" t="n">
-        <v>1905.97617927905</v>
+        <v>-1297.16759779569</v>
       </c>
       <c r="D4" t="n">
-        <v>267.909826037655</v>
+        <v>-5172.24040088384</v>
       </c>
       <c r="E4" t="n">
-        <v>8094.73817915779</v>
+        <v>11093.0597115543</v>
       </c>
       <c r="F4" t="n">
-        <v>9732.80453239918</v>
+        <v>15830.5851686021</v>
       </c>
       <c r="G4" t="s">
         <v>10</v>
@@ -509,7 +509,7 @@
         <v>197</v>
       </c>
       <c r="I4" t="n">
-        <v>4803.35717921842</v>
+        <v>4707.33354001748</v>
       </c>
       <c r="J4" t="s">
         <v>11</v>
@@ -520,19 +520,19 @@
         <v>43922</v>
       </c>
       <c r="B5" t="n">
-        <v>8709.16575577456</v>
+        <v>8656.04415073726</v>
       </c>
       <c r="C5" t="n">
-        <v>2371.80108461244</v>
+        <v>1303.85422091583</v>
       </c>
       <c r="D5" t="n">
-        <v>-982.997124223106</v>
+        <v>-2709.45889745467</v>
       </c>
       <c r="E5" t="n">
-        <v>15046.5304269367</v>
+        <v>16123.9253664737</v>
       </c>
       <c r="F5" t="n">
-        <v>18401.3286357722</v>
+        <v>20374.1599499227</v>
       </c>
       <c r="G5" t="s">
         <v>10</v>
@@ -541,7 +541,7 @@
         <v>116</v>
       </c>
       <c r="I5" t="n">
-        <v>8593.16575577456</v>
+        <v>8540.04415073726</v>
       </c>
       <c r="J5" t="s">
         <v>11</v>
@@ -552,19 +552,19 @@
         <v>43952</v>
       </c>
       <c r="B6" t="n">
-        <v>9717.02457056929</v>
+        <v>10185.4089685138</v>
       </c>
       <c r="C6" t="n">
-        <v>1665.09733903548</v>
+        <v>2320.50698365151</v>
       </c>
       <c r="D6" t="n">
-        <v>-2597.33546318961</v>
+        <v>-2377.07048430576</v>
       </c>
       <c r="E6" t="n">
-        <v>17768.9518021031</v>
+        <v>18207.7618272711</v>
       </c>
       <c r="F6" t="n">
-        <v>22031.3846043282</v>
+        <v>23098.2426394496</v>
       </c>
       <c r="G6" t="s">
         <v>10</v>
@@ -573,7 +573,7 @@
         <v>90</v>
       </c>
       <c r="I6" t="n">
-        <v>9627.02457056929</v>
+        <v>10095.4089685138</v>
       </c>
       <c r="J6" t="s">
         <v>11</v>
@@ -584,19 +584,19 @@
         <v>43983</v>
       </c>
       <c r="B7" t="n">
-        <v>5505.56319948048</v>
+        <v>6530.67256846405</v>
       </c>
       <c r="C7" t="n">
-        <v>414.285516131601</v>
+        <v>-2606.14720073688</v>
       </c>
       <c r="D7" t="n">
-        <v>-2280.87408711893</v>
+        <v>-5605.03798321688</v>
       </c>
       <c r="E7" t="n">
-        <v>10596.8408828294</v>
+        <v>14771.3192246331</v>
       </c>
       <c r="F7" t="n">
-        <v>13292.0004860799</v>
+        <v>19259.8548113906</v>
       </c>
       <c r="G7" t="s">
         <v>10</v>
@@ -605,7 +605,7 @@
         <v>114</v>
       </c>
       <c r="I7" t="n">
-        <v>5391.56319948048</v>
+        <v>6416.67256846405</v>
       </c>
       <c r="J7" t="s">
         <v>11</v>
@@ -616,19 +616,19 @@
         <v>44013</v>
       </c>
       <c r="B8" t="n">
-        <v>2489.08076783683</v>
+        <v>2869.40769592583</v>
       </c>
       <c r="C8" t="n">
-        <v>-44.2577403004939</v>
+        <v>-6269.10078527766</v>
       </c>
       <c r="D8" t="n">
-        <v>-1385.32613867542</v>
+        <v>-10813.409745938</v>
       </c>
       <c r="E8" t="n">
-        <v>5022.41927597416</v>
+        <v>12255.4609777128</v>
       </c>
       <c r="F8" t="n">
-        <v>6363.48767434909</v>
+        <v>15764.6334865366</v>
       </c>
       <c r="G8" t="s">
         <v>10</v>
@@ -637,7 +637,7 @@
         <v>96</v>
       </c>
       <c r="I8" t="n">
-        <v>2393.08076783683</v>
+        <v>2773.40769592583</v>
       </c>
       <c r="J8" t="s">
         <v>11</v>
@@ -648,19 +648,19 @@
         <v>44044</v>
       </c>
       <c r="B9" t="n">
-        <v>1236.72874640402</v>
+        <v>1968.29283417785</v>
       </c>
       <c r="C9" t="n">
-        <v>-134.68338178881</v>
+        <v>-7792.24502478994</v>
       </c>
       <c r="D9" t="n">
-        <v>-860.665109205004</v>
+        <v>-11746.0813971677</v>
       </c>
       <c r="E9" t="n">
-        <v>2608.14087459684</v>
+        <v>11864.6148636962</v>
       </c>
       <c r="F9" t="n">
-        <v>3334.12260201304</v>
+        <v>17240.7321025731</v>
       </c>
       <c r="G9" t="s">
         <v>10</v>
@@ -669,7 +669,7 @@
         <v>82</v>
       </c>
       <c r="I9" t="n">
-        <v>1154.72874640402</v>
+        <v>1886.29283417785</v>
       </c>
       <c r="J9" t="s">
         <v>11</v>
@@ -680,19 +680,19 @@
         <v>44075</v>
       </c>
       <c r="B10" t="n">
-        <v>1020.38472702269</v>
+        <v>1665.80088361969</v>
       </c>
       <c r="C10" t="n">
-        <v>-203.003155959862</v>
+        <v>-8615.34791882625</v>
       </c>
       <c r="D10" t="n">
-        <v>-850.625581290224</v>
+        <v>-12836.2692834512</v>
       </c>
       <c r="E10" t="n">
-        <v>2243.77261000524</v>
+        <v>12014.1135653543</v>
       </c>
       <c r="F10" t="n">
-        <v>2891.3950353356</v>
+        <v>15815.921922791</v>
       </c>
       <c r="G10" t="s">
         <v>10</v>
@@ -701,7 +701,7 @@
         <v>102</v>
       </c>
       <c r="I10" t="n">
-        <v>918.384727022687</v>
+        <v>1563.80088361969</v>
       </c>
       <c r="J10" t="s">
         <v>11</v>
@@ -712,19 +712,19 @@
         <v>44105</v>
       </c>
       <c r="B11" t="n">
-        <v>1086.38153310003</v>
+        <v>1651.17874866724</v>
       </c>
       <c r="C11" t="n">
-        <v>-313.458742176718</v>
+        <v>-8937.04678172398</v>
       </c>
       <c r="D11" t="n">
-        <v>-1054.4894216205</v>
+        <v>-13435.5232926768</v>
       </c>
       <c r="E11" t="n">
-        <v>2486.22180837678</v>
+        <v>12543.8689229103</v>
       </c>
       <c r="F11" t="n">
-        <v>3227.25248782056</v>
+        <v>15955.7208532801</v>
       </c>
       <c r="G11" t="s">
         <v>10</v>
@@ -733,7 +733,7 @@
         <v>157</v>
       </c>
       <c r="I11" t="n">
-        <v>929.38153310003</v>
+        <v>1494.17874866724</v>
       </c>
       <c r="J11" t="s">
         <v>11</v>
@@ -744,19 +744,19 @@
         <v>44136</v>
       </c>
       <c r="B12" t="n">
-        <v>1268.69925915799</v>
+        <v>1605.95390996813</v>
       </c>
       <c r="C12" t="n">
-        <v>-479.756132394754</v>
+        <v>-9519.64902578659</v>
       </c>
       <c r="D12" t="n">
-        <v>-1405.33250683028</v>
+        <v>-16062.3066390303</v>
       </c>
       <c r="E12" t="n">
-        <v>3017.15465071074</v>
+        <v>14312.468097587</v>
       </c>
       <c r="F12" t="n">
-        <v>3942.73102514626</v>
+        <v>18719.540643026</v>
       </c>
       <c r="G12" t="s">
         <v>10</v>
@@ -765,7 +765,7 @@
         <v>276</v>
       </c>
       <c r="I12" t="n">
-        <v>992.699259157991</v>
+        <v>1329.95390996813</v>
       </c>
       <c r="J12" t="s">
         <v>11</v>
@@ -776,19 +776,19 @@
         <v>44166</v>
       </c>
       <c r="B13" t="n">
-        <v>1718.01420378355</v>
+        <v>1660.19973907398</v>
       </c>
       <c r="C13" t="n">
-        <v>-804.340402051133</v>
+        <v>-9402.04439502953</v>
       </c>
       <c r="D13" t="n">
-        <v>-2139.59427377611</v>
+        <v>-15410.300807683</v>
       </c>
       <c r="E13" t="n">
-        <v>4240.36880961823</v>
+        <v>14442.2324756412</v>
       </c>
       <c r="F13" t="n">
-        <v>5575.62268134321</v>
+        <v>19609.9699566941</v>
       </c>
       <c r="G13" t="s">
         <v>10</v>
@@ -797,7 +797,7 @@
         <v>104</v>
       </c>
       <c r="I13" t="n">
-        <v>1614.01420378355</v>
+        <v>1556.19973907398</v>
       </c>
       <c r="J13" t="s">
         <v>11</v>
@@ -808,19 +808,19 @@
         <v>44197</v>
       </c>
       <c r="B14" t="n">
-        <v>1722.52003769654</v>
+        <v>1435.57230298659</v>
       </c>
       <c r="C14" t="n">
-        <v>-962.848490676093</v>
+        <v>-10870.7965313503</v>
       </c>
       <c r="D14" t="n">
-        <v>-2384.39672034359</v>
+        <v>-15436.740880652</v>
       </c>
       <c r="E14" t="n">
-        <v>4407.88856606918</v>
+        <v>13168.7833717351</v>
       </c>
       <c r="F14" t="n">
-        <v>5829.43679573668</v>
+        <v>19197.3938873792</v>
       </c>
       <c r="G14" t="s">
         <v>10</v>
@@ -829,7 +829,7 @@
         <v>127</v>
       </c>
       <c r="I14" t="n">
-        <v>1595.52003769654</v>
+        <v>1308.57230298659</v>
       </c>
       <c r="J14" t="s">
         <v>11</v>
@@ -840,19 +840,19 @@
         <v>44228</v>
       </c>
       <c r="B15" t="n">
-        <v>1573.76622191557</v>
+        <v>1388.66477239298</v>
       </c>
       <c r="C15" t="n">
-        <v>-1024.18726743177</v>
+        <v>-10569.4134022298</v>
       </c>
       <c r="D15" t="n">
-        <v>-2399.4607706847</v>
+        <v>-18367.2765430394</v>
       </c>
       <c r="E15" t="n">
-        <v>4171.71971126291</v>
+        <v>13951.7674194599</v>
       </c>
       <c r="F15" t="n">
-        <v>5546.99321451584</v>
+        <v>22026.1793878665</v>
       </c>
       <c r="G15" t="s">
         <v>10</v>
@@ -861,7 +861,7 @@
         <v>46</v>
       </c>
       <c r="I15" t="n">
-        <v>1527.76622191557</v>
+        <v>1342.66477239298</v>
       </c>
       <c r="J15" t="s">
         <v>11</v>
@@ -872,19 +872,19 @@
         <v>44256</v>
       </c>
       <c r="B16" t="n">
-        <v>5000.39362291529</v>
+        <v>4435.49229328145</v>
       </c>
       <c r="C16" t="n">
-        <v>-3719.68604150992</v>
+        <v>-8516.5842673519</v>
       </c>
       <c r="D16" t="n">
-        <v>-8335.81737639056</v>
+        <v>-16375.3161025805</v>
       </c>
       <c r="E16" t="n">
-        <v>13720.4732873405</v>
+        <v>18144.0522495353</v>
       </c>
       <c r="F16" t="n">
-        <v>18336.6046222211</v>
+        <v>26331.0439428815</v>
       </c>
       <c r="G16" t="s">
         <v>10</v>
@@ -893,7 +893,7 @@
         <v>82</v>
       </c>
       <c r="I16" t="n">
-        <v>4918.39362291529</v>
+        <v>4353.49229328145</v>
       </c>
       <c r="J16" t="s">
         <v>11</v>
@@ -904,19 +904,19 @@
         <v>44287</v>
       </c>
       <c r="B17" t="n">
-        <v>8709.22923007958</v>
+        <v>8523.32355688121</v>
       </c>
       <c r="C17" t="n">
-        <v>-7302.47465403387</v>
+        <v>-4708.89367389133</v>
       </c>
       <c r="D17" t="n">
-        <v>-15778.5586886581</v>
+        <v>-12913.280082888</v>
       </c>
       <c r="E17" t="n">
-        <v>24720.933114193</v>
+        <v>23435.8291309678</v>
       </c>
       <c r="F17" t="n">
-        <v>33197.0171488173</v>
+        <v>30253.8842471243</v>
       </c>
       <c r="G17" t="s">
         <v>10</v>
@@ -925,7 +925,7 @@
         <v>107</v>
       </c>
       <c r="I17" t="n">
-        <v>8602.22923007958</v>
+        <v>8416.32355688121</v>
       </c>
       <c r="J17" t="s">
         <v>11</v>
@@ -936,19 +936,19 @@
         <v>44317</v>
       </c>
       <c r="B18" t="n">
-        <v>9717.0953903698</v>
+        <v>9917.92297503782</v>
       </c>
       <c r="C18" t="n">
-        <v>-9083.3900349258</v>
+        <v>-2694.19964661073</v>
       </c>
       <c r="D18" t="n">
-        <v>-19035.7658413909</v>
+        <v>-10598.9223299983</v>
       </c>
       <c r="E18" t="n">
-        <v>28517.5808156654</v>
+        <v>23512.9487793374</v>
       </c>
       <c r="F18" t="n">
-        <v>38469.9566221305</v>
+        <v>33184.9803373189</v>
       </c>
       <c r="G18" t="s">
         <v>10</v>
@@ -957,7 +957,7 @@
         <v>187</v>
       </c>
       <c r="I18" t="n">
-        <v>9530.0953903698</v>
+        <v>9730.92297503782</v>
       </c>
       <c r="J18" t="s">
         <v>11</v>
@@ -968,19 +968,19 @@
         <v>44348</v>
       </c>
       <c r="B19" t="n">
-        <v>5505.60332522934</v>
+        <v>6593.38411475824</v>
       </c>
       <c r="C19" t="n">
-        <v>-5687.28189116755</v>
+        <v>-7465.94533783101</v>
       </c>
       <c r="D19" t="n">
-        <v>-11612.4374130738</v>
+        <v>-16789.4507009559</v>
       </c>
       <c r="E19" t="n">
-        <v>16698.4885416262</v>
+        <v>20738.5062240355</v>
       </c>
       <c r="F19" t="n">
-        <v>22623.6440635325</v>
+        <v>30023.5307629307</v>
       </c>
       <c r="G19" t="s">
         <v>10</v>
@@ -989,7 +989,7 @@
         <v>115</v>
       </c>
       <c r="I19" t="n">
-        <v>5390.60332522934</v>
+        <v>6478.38411475824</v>
       </c>
       <c r="J19" t="s">
         <v>11</v>
@@ -1000,19 +1000,19 @@
         <v>44378</v>
       </c>
       <c r="B20" t="n">
-        <v>2489.09890880192</v>
+        <v>2882.23561980232</v>
       </c>
       <c r="C20" t="n">
-        <v>-2820.89896545507</v>
+        <v>-10124.7278806223</v>
       </c>
       <c r="D20" t="n">
-        <v>-5631.84204382005</v>
+        <v>-20992.8358369844</v>
       </c>
       <c r="E20" t="n">
-        <v>7799.09678305891</v>
+        <v>17684.0151925986</v>
       </c>
       <c r="F20" t="n">
-        <v>10610.0398614239</v>
+        <v>26261.7099966977</v>
       </c>
       <c r="G20" t="s">
         <v>10</v>
@@ -1021,7 +1021,7 @@
         <v>102</v>
       </c>
       <c r="I20" t="n">
-        <v>2387.09890880192</v>
+        <v>2780.23561980232</v>
       </c>
       <c r="J20" t="s">
         <v>11</v>
@@ -1032,19 +1032,19 @@
         <v>44409</v>
       </c>
       <c r="B21" t="n">
-        <v>1236.73775995364</v>
+        <v>2001.91178063673</v>
       </c>
       <c r="C21" t="n">
-        <v>-1528.44338916086</v>
+        <v>-13344.7861039804</v>
       </c>
       <c r="D21" t="n">
-        <v>-2992.241868104</v>
+        <v>-24141.4210059399</v>
       </c>
       <c r="E21" t="n">
-        <v>4001.91890906813</v>
+        <v>17685.2084790063</v>
       </c>
       <c r="F21" t="n">
-        <v>5465.71738801127</v>
+        <v>24714.4640974218</v>
       </c>
       <c r="G21" t="s">
         <v>10</v>
@@ -1053,7 +1053,7 @@
         <v>68</v>
       </c>
       <c r="I21" t="n">
-        <v>1168.73775995364</v>
+        <v>1933.91178063673</v>
       </c>
       <c r="J21" t="s">
         <v>11</v>
@@ -1064,19 +1064,19 @@
         <v>44440</v>
       </c>
       <c r="B22" t="n">
-        <v>1020.39216380977</v>
+        <v>1852.95031844231</v>
       </c>
       <c r="C22" t="n">
-        <v>-1368.20900618701</v>
+        <v>-13904.211296591</v>
       </c>
       <c r="D22" t="n">
-        <v>-2632.65808597434</v>
+        <v>-24509.0531340255</v>
       </c>
       <c r="E22" t="n">
-        <v>3408.99333380655</v>
+        <v>17142.1787558578</v>
       </c>
       <c r="F22" t="n">
-        <v>4673.44241359388</v>
+        <v>25155.9561010276</v>
       </c>
       <c r="G22" t="s">
         <v>10</v>
@@ -1085,7 +1085,7 @@
         <v>90</v>
       </c>
       <c r="I22" t="n">
-        <v>930.39216380977</v>
+        <v>1762.95031844231</v>
       </c>
       <c r="J22" t="s">
         <v>11</v>
@@ -1096,19 +1096,19 @@
         <v>44470</v>
       </c>
       <c r="B23" t="n">
-        <v>1086.38945088627</v>
+        <v>2202.51898874513</v>
       </c>
       <c r="C23" t="n">
-        <v>-1573.59590189417</v>
+        <v>-13545.833406443</v>
       </c>
       <c r="D23" t="n">
-        <v>-2981.70709007363</v>
+        <v>-25311.5377269289</v>
       </c>
       <c r="E23" t="n">
-        <v>3746.37480366671</v>
+        <v>19100.5109605263</v>
       </c>
       <c r="F23" t="n">
-        <v>5154.48599184617</v>
+        <v>27381.1997347264</v>
       </c>
       <c r="G23" t="s">
         <v>10</v>
@@ -1117,7 +1117,7 @@
         <v>101</v>
       </c>
       <c r="I23" t="n">
-        <v>985.389450886272</v>
+        <v>2101.51898874513</v>
       </c>
       <c r="J23" t="s">
         <v>11</v>
@@ -1128,19 +1128,19 @@
         <v>44501</v>
       </c>
       <c r="B24" t="n">
-        <v>1268.7085057157</v>
+        <v>2216.05429319471</v>
       </c>
       <c r="C24" t="n">
-        <v>-1977.69438744411</v>
+        <v>-14056.9415660727</v>
       </c>
       <c r="D24" t="n">
-        <v>-3696.23626979628</v>
+        <v>-24620.1594291854</v>
       </c>
       <c r="E24" t="n">
-        <v>4515.11139887551</v>
+        <v>19150.037914344</v>
       </c>
       <c r="F24" t="n">
-        <v>6233.65328122768</v>
+        <v>28125.8247799521</v>
       </c>
       <c r="G24" t="s">
         <v>10</v>
@@ -1149,7 +1149,7 @@
         <v>119</v>
       </c>
       <c r="I24" t="n">
-        <v>1149.7085057157</v>
+        <v>2097.05429319471</v>
       </c>
       <c r="J24" t="s">
         <v>11</v>
@@ -1160,19 +1160,19 @@
         <v>44531</v>
       </c>
       <c r="B25" t="n">
-        <v>1718.02672504686</v>
+        <v>2412.12944181856</v>
       </c>
       <c r="C25" t="n">
-        <v>-2872.73189195016</v>
+        <v>-14719.8110808623</v>
       </c>
       <c r="D25" t="n">
-        <v>-5302.93270642748</v>
+        <v>-25220.8807009706</v>
       </c>
       <c r="E25" t="n">
-        <v>6308.78534204388</v>
+        <v>19561.3595151718</v>
       </c>
       <c r="F25" t="n">
-        <v>8738.98615652119</v>
+        <v>29269.5630025826</v>
       </c>
       <c r="G25" t="s">
         <v>10</v>
@@ -1181,7 +1181,7 @@
         <v>158</v>
       </c>
       <c r="I25" t="n">
-        <v>1560.02672504686</v>
+        <v>2254.12944181856</v>
       </c>
       <c r="J25" t="s">
         <v>11</v>
@@ -1192,19 +1192,19 @@
         <v>44562</v>
       </c>
       <c r="B26" t="n">
-        <v>1722.53259179935</v>
+        <v>2449.25062568278</v>
       </c>
       <c r="C26" t="n">
-        <v>-3080.76099981079</v>
+        <v>-14767.4597584749</v>
       </c>
       <c r="D26" t="n">
-        <v>-5623.47103367886</v>
+        <v>-25370.9043265493</v>
       </c>
       <c r="E26" t="n">
-        <v>6525.82618340949</v>
+        <v>20459.9253979175</v>
       </c>
       <c r="F26" t="n">
-        <v>9068.53621727756</v>
+        <v>31266.172288883</v>
       </c>
       <c r="G26" t="s">
         <v>10</v>
@@ -1213,7 +1213,7 @@
         <v>70</v>
       </c>
       <c r="I26" t="n">
-        <v>1652.53259179935</v>
+        <v>2379.25062568278</v>
       </c>
       <c r="J26" t="s">
         <v>11</v>
@@ -1224,19 +1224,19 @@
         <v>44593</v>
       </c>
       <c r="B27" t="n">
-        <v>1573.77769186803</v>
+        <v>2503.10596210668</v>
       </c>
       <c r="C27" t="n">
-        <v>-3002.97512390532</v>
+        <v>-15435.0644808738</v>
       </c>
       <c r="D27" t="n">
-        <v>-5425.76171507428</v>
+        <v>-26192.1097527933</v>
       </c>
       <c r="E27" t="n">
-        <v>6150.53050764139</v>
+        <v>21693.0710351323</v>
       </c>
       <c r="F27" t="n">
-        <v>8573.31709881035</v>
+        <v>33034.2890682479</v>
       </c>
       <c r="G27" t="s">
         <v>10</v>
@@ -1245,7 +1245,7 @@
         <v>55</v>
       </c>
       <c r="I27" t="n">
-        <v>1518.77769186803</v>
+        <v>2448.10596210668</v>
       </c>
       <c r="J27" t="s">
         <v>11</v>
@@ -1256,19 +1256,19 @@
         <v>44621</v>
       </c>
       <c r="B28" t="n">
-        <v>5000.43006687777</v>
+        <v>5160.17375733286</v>
       </c>
       <c r="C28" t="n">
-        <v>-10156.7293834669</v>
+        <v>-15133.8762383406</v>
       </c>
       <c r="D28" t="n">
-        <v>-18180.4449203742</v>
+        <v>-24346.4751955863</v>
       </c>
       <c r="E28" t="n">
-        <v>20157.5895172224</v>
+        <v>23864.286730953</v>
       </c>
       <c r="F28" t="n">
-        <v>28181.3050541297</v>
+        <v>36297.8971982612</v>
       </c>
       <c r="G28" t="s">
         <v>10</v>
@@ -1277,7 +1277,7 @@
         <v>98</v>
       </c>
       <c r="I28" t="n">
-        <v>4902.43006687777</v>
+        <v>5062.17375733286</v>
       </c>
       <c r="J28" t="s">
         <v>11</v>
@@ -1288,19 +1288,19 @@
         <v>44652</v>
       </c>
       <c r="B29" t="n">
-        <v>8709.29270484721</v>
+        <v>9151.44443275916</v>
       </c>
       <c r="C29" t="n">
-        <v>-18792.8318357884</v>
+        <v>-11016.0774678802</v>
       </c>
       <c r="D29" t="n">
-        <v>-33351.5771401165</v>
+        <v>-21962.1933871677</v>
       </c>
       <c r="E29" t="n">
-        <v>36211.4172454828</v>
+        <v>28649.1881080931</v>
       </c>
       <c r="F29" t="n">
-        <v>50770.1625498109</v>
+        <v>39622.0856659743</v>
       </c>
       <c r="G29" t="s">
         <v>10</v>
@@ -1309,7 +1309,7 @@
         <v>97</v>
       </c>
       <c r="I29" t="n">
-        <v>8612.29270484721</v>
+        <v>9054.44443275916</v>
       </c>
       <c r="J29" t="s">
         <v>11</v>
@@ -1320,19 +1320,19 @@
         <v>44682</v>
       </c>
       <c r="B30" t="n">
-        <v>9717.16621068647</v>
+        <v>10636.1222795221</v>
       </c>
       <c r="C30" t="n">
-        <v>-22234.4197383628</v>
+        <v>-10459.3782054261</v>
       </c>
       <c r="D30" t="n">
-        <v>-39148.5676331642</v>
+        <v>-21014.2558258352</v>
       </c>
       <c r="E30" t="n">
-        <v>41668.7521597358</v>
+        <v>30554.4486740267</v>
       </c>
       <c r="F30" t="n">
-        <v>58582.9000545372</v>
+        <v>42251.8881538903</v>
       </c>
       <c r="G30" t="s">
         <v>10</v>
@@ -1341,7 +1341,7 @@
         <v>155</v>
       </c>
       <c r="I30" t="n">
-        <v>9562.16621068647</v>
+        <v>10481.1222795221</v>
       </c>
       <c r="J30" t="s">
         <v>11</v>
@@ -1352,19 +1352,19 @@
         <v>44713</v>
       </c>
       <c r="B31" t="n">
-        <v>5505.64345127063</v>
+        <v>7133.45248080796</v>
       </c>
       <c r="C31" t="n">
-        <v>-13337.1253935064</v>
+        <v>-15647.8715938065</v>
       </c>
       <c r="D31" t="n">
-        <v>-23311.8846901603</v>
+        <v>-26188.6574830358</v>
       </c>
       <c r="E31" t="n">
-        <v>24348.4122960477</v>
+        <v>27601.6845326314</v>
       </c>
       <c r="F31" t="n">
-        <v>34323.1715927015</v>
+        <v>38030.5178280251</v>
       </c>
       <c r="G31" t="s">
         <v>10</v>
@@ -1373,7 +1373,7 @@
         <v>167</v>
       </c>
       <c r="I31" t="n">
-        <v>5338.64345127063</v>
+        <v>6966.45248080796</v>
       </c>
       <c r="J31" t="s">
         <v>11</v>
@@ -1384,19 +1384,19 @@
         <v>44743</v>
       </c>
       <c r="B32" t="n">
-        <v>2489.11704989922</v>
+        <v>3642.5806897017</v>
       </c>
       <c r="C32" t="n">
-        <v>-6374.19923132671</v>
+        <v>-18297.2645446826</v>
       </c>
       <c r="D32" t="n">
-        <v>-11066.1554509058</v>
+        <v>-30437.0581708712</v>
       </c>
       <c r="E32" t="n">
-        <v>11352.4333311251</v>
+        <v>24896.2635984875</v>
       </c>
       <c r="F32" t="n">
-        <v>16044.3895507042</v>
+        <v>35076.6026354818</v>
       </c>
       <c r="G32" t="s">
         <v>10</v>
@@ -1405,7 +1405,7 @@
         <v>106</v>
       </c>
       <c r="I32" t="n">
-        <v>2383.11704989922</v>
+        <v>3536.5806897017</v>
       </c>
       <c r="J32" t="s">
         <v>11</v>
@@ -1416,19 +1416,19 @@
         <v>44774</v>
       </c>
       <c r="B33" t="n">
-        <v>1236.74677356895</v>
+        <v>2449.74642906415</v>
       </c>
       <c r="C33" t="n">
-        <v>-3343.52069589339</v>
+        <v>-20194.9696178487</v>
       </c>
       <c r="D33" t="n">
-        <v>-5768.16783233824</v>
+        <v>-30989.2650566059</v>
       </c>
       <c r="E33" t="n">
-        <v>5817.01424303128</v>
+        <v>24776.8175668063</v>
       </c>
       <c r="F33" t="n">
-        <v>8241.66137947613</v>
+        <v>34939.6952311979</v>
       </c>
       <c r="G33" t="s">
         <v>10</v>
@@ -1437,7 +1437,7 @@
         <v>128</v>
       </c>
       <c r="I33" t="n">
-        <v>1108.74677356895</v>
+        <v>2321.74642906415</v>
       </c>
       <c r="J33" t="s">
         <v>11</v>
@@ -1448,19 +1448,19 @@
         <v>44805</v>
       </c>
       <c r="B34" t="n">
-        <v>1020.39960065105</v>
+        <v>2110.11175614201</v>
       </c>
       <c r="C34" t="n">
-        <v>-2908.7382576287</v>
+        <v>-20274.7187248561</v>
       </c>
       <c r="D34" t="n">
-        <v>-4988.69819889679</v>
+        <v>-29400.9319797939</v>
       </c>
       <c r="E34" t="n">
-        <v>4949.53745893081</v>
+        <v>25106.2407563973</v>
       </c>
       <c r="F34" t="n">
-        <v>7029.4974001989</v>
+        <v>35258.0040711066</v>
       </c>
       <c r="G34" t="s">
         <v>10</v>
@@ -1469,7 +1469,7 @@
         <v>98</v>
       </c>
       <c r="I34" t="n">
-        <v>922.399600651055</v>
+        <v>2012.11175614201</v>
       </c>
       <c r="J34" t="s">
         <v>11</v>
@@ -1480,19 +1480,19 @@
         <v>44835</v>
       </c>
       <c r="B35" t="n">
-        <v>1086.39736873022</v>
+        <v>2470.47661160554</v>
       </c>
       <c r="C35" t="n">
-        <v>-3261.72889103639</v>
+        <v>-19100.5050298679</v>
       </c>
       <c r="D35" t="n">
-        <v>-5563.48789418066</v>
+        <v>-30804.6154050553</v>
       </c>
       <c r="E35" t="n">
-        <v>5434.52362849683</v>
+        <v>24895.1137224442</v>
       </c>
       <c r="F35" t="n">
-        <v>7736.2826316411</v>
+        <v>37844.0538089657</v>
       </c>
       <c r="G35" t="s">
         <v>10</v>
@@ -1501,7 +1501,7 @@
         <v>118</v>
       </c>
       <c r="I35" t="n">
-        <v>968.39736873022</v>
+        <v>2352.47661160554</v>
       </c>
       <c r="J35" t="s">
         <v>11</v>
@@ -1512,19 +1512,19 @@
         <v>44866</v>
       </c>
       <c r="B36" t="n">
-        <v>1268.7177523408</v>
+        <v>2344.21834952004</v>
       </c>
       <c r="C36" t="n">
-        <v>-4007.77128069096</v>
+        <v>-19676.7448317063</v>
       </c>
       <c r="D36" t="n">
-        <v>-6800.97585001383</v>
+        <v>-34451.2820304384</v>
       </c>
       <c r="E36" t="n">
-        <v>6545.20678537256</v>
+        <v>24413.1805983112</v>
       </c>
       <c r="F36" t="n">
-        <v>9338.41135469543</v>
+        <v>36040.6774615129</v>
       </c>
       <c r="G36" t="s">
         <v>10</v>
@@ -1533,7 +1533,7 @@
         <v>120</v>
       </c>
       <c r="I36" t="n">
-        <v>1148.7177523408</v>
+        <v>2224.21834952004</v>
       </c>
       <c r="J36" t="s">
         <v>11</v>

--- a/outcome/appendix/data/PHSMs/Rubella.xlsx
+++ b/outcome/appendix/data/PHSMs/Rubella.xlsx
@@ -424,19 +424,19 @@
         <v>43831</v>
       </c>
       <c r="B2" t="n">
-        <v>1737.21164884855</v>
+        <v>1722.50748368523</v>
       </c>
       <c r="C2" t="n">
-        <v>-1517.32922800779</v>
+        <v>1128.65460342033</v>
       </c>
       <c r="D2" t="n">
-        <v>-3398.5697993056</v>
+        <v>814.287878069938</v>
       </c>
       <c r="E2" t="n">
-        <v>5763.37555921062</v>
+        <v>2316.36036395013</v>
       </c>
       <c r="F2" t="n">
-        <v>7216.50016456256</v>
+        <v>2630.72708930052</v>
       </c>
       <c r="G2" t="s">
         <v>10</v>
@@ -445,7 +445,7 @@
         <v>1199</v>
       </c>
       <c r="I2" t="n">
-        <v>538.211648848552</v>
+        <v>523.50748368523</v>
       </c>
       <c r="J2" t="s">
         <v>11</v>
@@ -456,19 +456,19 @@
         <v>43862</v>
       </c>
       <c r="B3" t="n">
-        <v>2081.33132043844</v>
+        <v>1573.7547520467</v>
       </c>
       <c r="C3" t="n">
-        <v>-3239.7691280244</v>
+        <v>792.728171138095</v>
       </c>
       <c r="D3" t="n">
-        <v>-5674.99618026761</v>
+        <v>379.277673866225</v>
       </c>
       <c r="E3" t="n">
-        <v>7592.77790373592</v>
+        <v>2354.78133295532</v>
       </c>
       <c r="F3" t="n">
-        <v>10822.682113154</v>
+        <v>2768.23183022718</v>
       </c>
       <c r="G3" t="s">
         <v>10</v>
@@ -477,7 +477,7 @@
         <v>306</v>
       </c>
       <c r="I3" t="n">
-        <v>1775.33132043844</v>
+        <v>1267.7547520467</v>
       </c>
       <c r="J3" t="s">
         <v>11</v>
@@ -488,19 +488,19 @@
         <v>43891</v>
       </c>
       <c r="B4" t="n">
-        <v>4904.33354001748</v>
+        <v>5000.35717921842</v>
       </c>
       <c r="C4" t="n">
-        <v>-1297.16759779569</v>
+        <v>1905.97617927905</v>
       </c>
       <c r="D4" t="n">
-        <v>-5172.24040088384</v>
+        <v>267.909826037655</v>
       </c>
       <c r="E4" t="n">
-        <v>11093.0597115543</v>
+        <v>8094.73817915779</v>
       </c>
       <c r="F4" t="n">
-        <v>15830.5851686021</v>
+        <v>9732.80453239918</v>
       </c>
       <c r="G4" t="s">
         <v>10</v>
@@ -509,7 +509,7 @@
         <v>197</v>
       </c>
       <c r="I4" t="n">
-        <v>4707.33354001748</v>
+        <v>4803.35717921842</v>
       </c>
       <c r="J4" t="s">
         <v>11</v>
@@ -520,19 +520,19 @@
         <v>43922</v>
       </c>
       <c r="B5" t="n">
-        <v>8656.04415073726</v>
+        <v>8709.16575577456</v>
       </c>
       <c r="C5" t="n">
-        <v>1303.85422091583</v>
+        <v>2371.80108461244</v>
       </c>
       <c r="D5" t="n">
-        <v>-2709.45889745467</v>
+        <v>-982.997124223106</v>
       </c>
       <c r="E5" t="n">
-        <v>16123.9253664737</v>
+        <v>15046.5304269367</v>
       </c>
       <c r="F5" t="n">
-        <v>20374.1599499227</v>
+        <v>18401.3286357722</v>
       </c>
       <c r="G5" t="s">
         <v>10</v>
@@ -541,7 +541,7 @@
         <v>116</v>
       </c>
       <c r="I5" t="n">
-        <v>8540.04415073726</v>
+        <v>8593.16575577456</v>
       </c>
       <c r="J5" t="s">
         <v>11</v>
@@ -552,19 +552,19 @@
         <v>43952</v>
       </c>
       <c r="B6" t="n">
-        <v>10185.4089685138</v>
+        <v>9717.02457056929</v>
       </c>
       <c r="C6" t="n">
-        <v>2320.50698365151</v>
+        <v>1665.09733903548</v>
       </c>
       <c r="D6" t="n">
-        <v>-2377.07048430576</v>
+        <v>-2597.33546318961</v>
       </c>
       <c r="E6" t="n">
-        <v>18207.7618272711</v>
+        <v>17768.9518021031</v>
       </c>
       <c r="F6" t="n">
-        <v>23098.2426394496</v>
+        <v>22031.3846043282</v>
       </c>
       <c r="G6" t="s">
         <v>10</v>
@@ -573,7 +573,7 @@
         <v>90</v>
       </c>
       <c r="I6" t="n">
-        <v>10095.4089685138</v>
+        <v>9627.02457056929</v>
       </c>
       <c r="J6" t="s">
         <v>11</v>
@@ -584,19 +584,19 @@
         <v>43983</v>
       </c>
       <c r="B7" t="n">
-        <v>6530.67256846405</v>
+        <v>5505.56319948048</v>
       </c>
       <c r="C7" t="n">
-        <v>-2606.14720073688</v>
+        <v>414.285516131601</v>
       </c>
       <c r="D7" t="n">
-        <v>-5605.03798321688</v>
+        <v>-2280.87408711893</v>
       </c>
       <c r="E7" t="n">
-        <v>14771.3192246331</v>
+        <v>10596.8408828294</v>
       </c>
       <c r="F7" t="n">
-        <v>19259.8548113906</v>
+        <v>13292.0004860799</v>
       </c>
       <c r="G7" t="s">
         <v>10</v>
@@ -605,7 +605,7 @@
         <v>114</v>
       </c>
       <c r="I7" t="n">
-        <v>6416.67256846405</v>
+        <v>5391.56319948048</v>
       </c>
       <c r="J7" t="s">
         <v>11</v>
@@ -616,19 +616,19 @@
         <v>44013</v>
       </c>
       <c r="B8" t="n">
-        <v>2869.40769592583</v>
+        <v>2489.08076783683</v>
       </c>
       <c r="C8" t="n">
-        <v>-6269.10078527766</v>
+        <v>-44.2577403004939</v>
       </c>
       <c r="D8" t="n">
-        <v>-10813.409745938</v>
+        <v>-1385.32613867542</v>
       </c>
       <c r="E8" t="n">
-        <v>12255.4609777128</v>
+        <v>5022.41927597416</v>
       </c>
       <c r="F8" t="n">
-        <v>15764.6334865366</v>
+        <v>6363.48767434909</v>
       </c>
       <c r="G8" t="s">
         <v>10</v>
@@ -637,7 +637,7 @@
         <v>96</v>
       </c>
       <c r="I8" t="n">
-        <v>2773.40769592583</v>
+        <v>2393.08076783683</v>
       </c>
       <c r="J8" t="s">
         <v>11</v>
@@ -648,19 +648,19 @@
         <v>44044</v>
       </c>
       <c r="B9" t="n">
-        <v>1968.29283417785</v>
+        <v>1236.72874640402</v>
       </c>
       <c r="C9" t="n">
-        <v>-7792.24502478994</v>
+        <v>-134.68338178881</v>
       </c>
       <c r="D9" t="n">
-        <v>-11746.0813971677</v>
+        <v>-860.665109205004</v>
       </c>
       <c r="E9" t="n">
-        <v>11864.6148636962</v>
+        <v>2608.14087459684</v>
       </c>
       <c r="F9" t="n">
-        <v>17240.7321025731</v>
+        <v>3334.12260201304</v>
       </c>
       <c r="G9" t="s">
         <v>10</v>
@@ -669,7 +669,7 @@
         <v>82</v>
       </c>
       <c r="I9" t="n">
-        <v>1886.29283417785</v>
+        <v>1154.72874640402</v>
       </c>
       <c r="J9" t="s">
         <v>11</v>
@@ -680,19 +680,19 @@
         <v>44075</v>
       </c>
       <c r="B10" t="n">
-        <v>1665.80088361969</v>
+        <v>1020.38472702269</v>
       </c>
       <c r="C10" t="n">
-        <v>-8615.34791882625</v>
+        <v>-203.003155959862</v>
       </c>
       <c r="D10" t="n">
-        <v>-12836.2692834512</v>
+        <v>-850.625581290224</v>
       </c>
       <c r="E10" t="n">
-        <v>12014.1135653543</v>
+        <v>2243.77261000524</v>
       </c>
       <c r="F10" t="n">
-        <v>15815.921922791</v>
+        <v>2891.3950353356</v>
       </c>
       <c r="G10" t="s">
         <v>10</v>
@@ -701,7 +701,7 @@
         <v>102</v>
       </c>
       <c r="I10" t="n">
-        <v>1563.80088361969</v>
+        <v>918.384727022687</v>
       </c>
       <c r="J10" t="s">
         <v>11</v>
@@ -712,19 +712,19 @@
         <v>44105</v>
       </c>
       <c r="B11" t="n">
-        <v>1651.17874866724</v>
+        <v>1086.38153310003</v>
       </c>
       <c r="C11" t="n">
-        <v>-8937.04678172398</v>
+        <v>-313.458742176718</v>
       </c>
       <c r="D11" t="n">
-        <v>-13435.5232926768</v>
+        <v>-1054.4894216205</v>
       </c>
       <c r="E11" t="n">
-        <v>12543.8689229103</v>
+        <v>2486.22180837678</v>
       </c>
       <c r="F11" t="n">
-        <v>15955.7208532801</v>
+        <v>3227.25248782056</v>
       </c>
       <c r="G11" t="s">
         <v>10</v>
@@ -733,7 +733,7 @@
         <v>157</v>
       </c>
       <c r="I11" t="n">
-        <v>1494.17874866724</v>
+        <v>929.38153310003</v>
       </c>
       <c r="J11" t="s">
         <v>11</v>
@@ -744,19 +744,19 @@
         <v>44136</v>
       </c>
       <c r="B12" t="n">
-        <v>1605.95390996813</v>
+        <v>1268.69925915799</v>
       </c>
       <c r="C12" t="n">
-        <v>-9519.64902578659</v>
+        <v>-479.756132394754</v>
       </c>
       <c r="D12" t="n">
-        <v>-16062.3066390303</v>
+        <v>-1405.33250683028</v>
       </c>
       <c r="E12" t="n">
-        <v>14312.468097587</v>
+        <v>3017.15465071074</v>
       </c>
       <c r="F12" t="n">
-        <v>18719.540643026</v>
+        <v>3942.73102514626</v>
       </c>
       <c r="G12" t="s">
         <v>10</v>
@@ -765,7 +765,7 @@
         <v>276</v>
       </c>
       <c r="I12" t="n">
-        <v>1329.95390996813</v>
+        <v>992.699259157991</v>
       </c>
       <c r="J12" t="s">
         <v>11</v>
@@ -776,19 +776,19 @@
         <v>44166</v>
       </c>
       <c r="B13" t="n">
-        <v>1660.19973907398</v>
+        <v>1718.01420378355</v>
       </c>
       <c r="C13" t="n">
-        <v>-9402.04439502953</v>
+        <v>-804.340402051133</v>
       </c>
       <c r="D13" t="n">
-        <v>-15410.300807683</v>
+        <v>-2139.59427377611</v>
       </c>
       <c r="E13" t="n">
-        <v>14442.2324756412</v>
+        <v>4240.36880961823</v>
       </c>
       <c r="F13" t="n">
-        <v>19609.9699566941</v>
+        <v>5575.62268134321</v>
       </c>
       <c r="G13" t="s">
         <v>10</v>
@@ -797,7 +797,7 @@
         <v>104</v>
       </c>
       <c r="I13" t="n">
-        <v>1556.19973907398</v>
+        <v>1614.01420378355</v>
       </c>
       <c r="J13" t="s">
         <v>11</v>
@@ -808,19 +808,19 @@
         <v>44197</v>
       </c>
       <c r="B14" t="n">
-        <v>1435.57230298659</v>
+        <v>1722.52003769654</v>
       </c>
       <c r="C14" t="n">
-        <v>-10870.7965313503</v>
+        <v>-962.848490676093</v>
       </c>
       <c r="D14" t="n">
-        <v>-15436.740880652</v>
+        <v>-2384.39672034359</v>
       </c>
       <c r="E14" t="n">
-        <v>13168.7833717351</v>
+        <v>4407.88856606918</v>
       </c>
       <c r="F14" t="n">
-        <v>19197.3938873792</v>
+        <v>5829.43679573668</v>
       </c>
       <c r="G14" t="s">
         <v>10</v>
@@ -829,7 +829,7 @@
         <v>127</v>
       </c>
       <c r="I14" t="n">
-        <v>1308.57230298659</v>
+        <v>1595.52003769654</v>
       </c>
       <c r="J14" t="s">
         <v>11</v>
@@ -840,19 +840,19 @@
         <v>44228</v>
       </c>
       <c r="B15" t="n">
-        <v>1388.66477239298</v>
+        <v>1573.76622191557</v>
       </c>
       <c r="C15" t="n">
-        <v>-10569.4134022298</v>
+        <v>-1024.18726743177</v>
       </c>
       <c r="D15" t="n">
-        <v>-18367.2765430394</v>
+        <v>-2399.4607706847</v>
       </c>
       <c r="E15" t="n">
-        <v>13951.7674194599</v>
+        <v>4171.71971126291</v>
       </c>
       <c r="F15" t="n">
-        <v>22026.1793878665</v>
+        <v>5546.99321451584</v>
       </c>
       <c r="G15" t="s">
         <v>10</v>
@@ -861,7 +861,7 @@
         <v>46</v>
       </c>
       <c r="I15" t="n">
-        <v>1342.66477239298</v>
+        <v>1527.76622191557</v>
       </c>
       <c r="J15" t="s">
         <v>11</v>
@@ -872,19 +872,19 @@
         <v>44256</v>
       </c>
       <c r="B16" t="n">
-        <v>4435.49229328145</v>
+        <v>5000.39362291529</v>
       </c>
       <c r="C16" t="n">
-        <v>-8516.5842673519</v>
+        <v>-3719.68604150992</v>
       </c>
       <c r="D16" t="n">
-        <v>-16375.3161025805</v>
+        <v>-8335.81737639056</v>
       </c>
       <c r="E16" t="n">
-        <v>18144.0522495353</v>
+        <v>13720.4732873405</v>
       </c>
       <c r="F16" t="n">
-        <v>26331.0439428815</v>
+        <v>18336.6046222211</v>
       </c>
       <c r="G16" t="s">
         <v>10</v>
@@ -893,7 +893,7 @@
         <v>82</v>
       </c>
       <c r="I16" t="n">
-        <v>4353.49229328145</v>
+        <v>4918.39362291529</v>
       </c>
       <c r="J16" t="s">
         <v>11</v>
@@ -904,19 +904,19 @@
         <v>44287</v>
       </c>
       <c r="B17" t="n">
-        <v>8523.32355688121</v>
+        <v>8709.22923007958</v>
       </c>
       <c r="C17" t="n">
-        <v>-4708.89367389133</v>
+        <v>-7302.47465403387</v>
       </c>
       <c r="D17" t="n">
-        <v>-12913.280082888</v>
+        <v>-15778.5586886581</v>
       </c>
       <c r="E17" t="n">
-        <v>23435.8291309678</v>
+        <v>24720.933114193</v>
       </c>
       <c r="F17" t="n">
-        <v>30253.8842471243</v>
+        <v>33197.0171488173</v>
       </c>
       <c r="G17" t="s">
         <v>10</v>
@@ -925,7 +925,7 @@
         <v>107</v>
       </c>
       <c r="I17" t="n">
-        <v>8416.32355688121</v>
+        <v>8602.22923007958</v>
       </c>
       <c r="J17" t="s">
         <v>11</v>
@@ -936,19 +936,19 @@
         <v>44317</v>
       </c>
       <c r="B18" t="n">
-        <v>9917.92297503782</v>
+        <v>9717.0953903698</v>
       </c>
       <c r="C18" t="n">
-        <v>-2694.19964661073</v>
+        <v>-9083.3900349258</v>
       </c>
       <c r="D18" t="n">
-        <v>-10598.9223299983</v>
+        <v>-19035.7658413909</v>
       </c>
       <c r="E18" t="n">
-        <v>23512.9487793374</v>
+        <v>28517.5808156654</v>
       </c>
       <c r="F18" t="n">
-        <v>33184.9803373189</v>
+        <v>38469.9566221305</v>
       </c>
       <c r="G18" t="s">
         <v>10</v>
@@ -957,7 +957,7 @@
         <v>187</v>
       </c>
       <c r="I18" t="n">
-        <v>9730.92297503782</v>
+        <v>9530.0953903698</v>
       </c>
       <c r="J18" t="s">
         <v>11</v>
@@ -968,19 +968,19 @@
         <v>44348</v>
       </c>
       <c r="B19" t="n">
-        <v>6593.38411475824</v>
+        <v>5505.60332522934</v>
       </c>
       <c r="C19" t="n">
-        <v>-7465.94533783101</v>
+        <v>-5687.28189116755</v>
       </c>
       <c r="D19" t="n">
-        <v>-16789.4507009559</v>
+        <v>-11612.4374130738</v>
       </c>
       <c r="E19" t="n">
-        <v>20738.5062240355</v>
+        <v>16698.4885416262</v>
       </c>
       <c r="F19" t="n">
-        <v>30023.5307629307</v>
+        <v>22623.6440635325</v>
       </c>
       <c r="G19" t="s">
         <v>10</v>
@@ -989,7 +989,7 @@
         <v>115</v>
       </c>
       <c r="I19" t="n">
-        <v>6478.38411475824</v>
+        <v>5390.60332522934</v>
       </c>
       <c r="J19" t="s">
         <v>11</v>
@@ -1000,19 +1000,19 @@
         <v>44378</v>
       </c>
       <c r="B20" t="n">
-        <v>2882.23561980232</v>
+        <v>2489.09890880192</v>
       </c>
       <c r="C20" t="n">
-        <v>-10124.7278806223</v>
+        <v>-2820.89896545507</v>
       </c>
       <c r="D20" t="n">
-        <v>-20992.8358369844</v>
+        <v>-5631.84204382005</v>
       </c>
       <c r="E20" t="n">
-        <v>17684.0151925986</v>
+        <v>7799.09678305891</v>
       </c>
       <c r="F20" t="n">
-        <v>26261.7099966977</v>
+        <v>10610.0398614239</v>
       </c>
       <c r="G20" t="s">
         <v>10</v>
@@ -1021,7 +1021,7 @@
         <v>102</v>
       </c>
       <c r="I20" t="n">
-        <v>2780.23561980232</v>
+        <v>2387.09890880192</v>
       </c>
       <c r="J20" t="s">
         <v>11</v>
@@ -1032,19 +1032,19 @@
         <v>44409</v>
       </c>
       <c r="B21" t="n">
-        <v>2001.91178063673</v>
+        <v>1236.73775995364</v>
       </c>
       <c r="C21" t="n">
-        <v>-13344.7861039804</v>
+        <v>-1528.44338916086</v>
       </c>
       <c r="D21" t="n">
-        <v>-24141.4210059399</v>
+        <v>-2992.241868104</v>
       </c>
       <c r="E21" t="n">
-        <v>17685.2084790063</v>
+        <v>4001.91890906813</v>
       </c>
       <c r="F21" t="n">
-        <v>24714.4640974218</v>
+        <v>5465.71738801127</v>
       </c>
       <c r="G21" t="s">
         <v>10</v>
@@ -1053,7 +1053,7 @@
         <v>68</v>
       </c>
       <c r="I21" t="n">
-        <v>1933.91178063673</v>
+        <v>1168.73775995364</v>
       </c>
       <c r="J21" t="s">
         <v>11</v>
@@ -1064,19 +1064,19 @@
         <v>44440</v>
       </c>
       <c r="B22" t="n">
-        <v>1852.95031844231</v>
+        <v>1020.39216380977</v>
       </c>
       <c r="C22" t="n">
-        <v>-13904.211296591</v>
+        <v>-1368.20900618701</v>
       </c>
       <c r="D22" t="n">
-        <v>-24509.0531340255</v>
+        <v>-2632.65808597434</v>
       </c>
       <c r="E22" t="n">
-        <v>17142.1787558578</v>
+        <v>3408.99333380655</v>
       </c>
       <c r="F22" t="n">
-        <v>25155.9561010276</v>
+        <v>4673.44241359388</v>
       </c>
       <c r="G22" t="s">
         <v>10</v>
@@ -1085,7 +1085,7 @@
         <v>90</v>
       </c>
       <c r="I22" t="n">
-        <v>1762.95031844231</v>
+        <v>930.39216380977</v>
       </c>
       <c r="J22" t="s">
         <v>11</v>
@@ -1096,19 +1096,19 @@
         <v>44470</v>
       </c>
       <c r="B23" t="n">
-        <v>2202.51898874513</v>
+        <v>1086.38945088627</v>
       </c>
       <c r="C23" t="n">
-        <v>-13545.833406443</v>
+        <v>-1573.59590189417</v>
       </c>
       <c r="D23" t="n">
-        <v>-25311.5377269289</v>
+        <v>-2981.70709007363</v>
       </c>
       <c r="E23" t="n">
-        <v>19100.5109605263</v>
+        <v>3746.37480366671</v>
       </c>
       <c r="F23" t="n">
-        <v>27381.1997347264</v>
+        <v>5154.48599184617</v>
       </c>
       <c r="G23" t="s">
         <v>10</v>
@@ -1117,7 +1117,7 @@
         <v>101</v>
       </c>
       <c r="I23" t="n">
-        <v>2101.51898874513</v>
+        <v>985.389450886272</v>
       </c>
       <c r="J23" t="s">
         <v>11</v>
@@ -1128,19 +1128,19 @@
         <v>44501</v>
       </c>
       <c r="B24" t="n">
-        <v>2216.05429319471</v>
+        <v>1268.7085057157</v>
       </c>
       <c r="C24" t="n">
-        <v>-14056.9415660727</v>
+        <v>-1977.69438744411</v>
       </c>
       <c r="D24" t="n">
-        <v>-24620.1594291854</v>
+        <v>-3696.23626979628</v>
       </c>
       <c r="E24" t="n">
-        <v>19150.037914344</v>
+        <v>4515.11139887551</v>
       </c>
       <c r="F24" t="n">
-        <v>28125.8247799521</v>
+        <v>6233.65328122768</v>
       </c>
       <c r="G24" t="s">
         <v>10</v>
@@ -1149,7 +1149,7 @@
         <v>119</v>
       </c>
       <c r="I24" t="n">
-        <v>2097.05429319471</v>
+        <v>1149.7085057157</v>
       </c>
       <c r="J24" t="s">
         <v>11</v>
@@ -1160,19 +1160,19 @@
         <v>44531</v>
       </c>
       <c r="B25" t="n">
-        <v>2412.12944181856</v>
+        <v>1718.02672504686</v>
       </c>
       <c r="C25" t="n">
-        <v>-14719.8110808623</v>
+        <v>-2872.73189195016</v>
       </c>
       <c r="D25" t="n">
-        <v>-25220.8807009706</v>
+        <v>-5302.93270642748</v>
       </c>
       <c r="E25" t="n">
-        <v>19561.3595151718</v>
+        <v>6308.78534204388</v>
       </c>
       <c r="F25" t="n">
-        <v>29269.5630025826</v>
+        <v>8738.98615652119</v>
       </c>
       <c r="G25" t="s">
         <v>10</v>
@@ -1181,7 +1181,7 @@
         <v>158</v>
       </c>
       <c r="I25" t="n">
-        <v>2254.12944181856</v>
+        <v>1560.02672504686</v>
       </c>
       <c r="J25" t="s">
         <v>11</v>
@@ -1192,19 +1192,19 @@
         <v>44562</v>
       </c>
       <c r="B26" t="n">
-        <v>2449.25062568278</v>
+        <v>1722.53259179935</v>
       </c>
       <c r="C26" t="n">
-        <v>-14767.4597584749</v>
+        <v>-3080.76099981079</v>
       </c>
       <c r="D26" t="n">
-        <v>-25370.9043265493</v>
+        <v>-5623.47103367886</v>
       </c>
       <c r="E26" t="n">
-        <v>20459.9253979175</v>
+        <v>6525.82618340949</v>
       </c>
       <c r="F26" t="n">
-        <v>31266.172288883</v>
+        <v>9068.53621727756</v>
       </c>
       <c r="G26" t="s">
         <v>10</v>
@@ -1213,7 +1213,7 @@
         <v>70</v>
       </c>
       <c r="I26" t="n">
-        <v>2379.25062568278</v>
+        <v>1652.53259179935</v>
       </c>
       <c r="J26" t="s">
         <v>11</v>
@@ -1224,19 +1224,19 @@
         <v>44593</v>
       </c>
       <c r="B27" t="n">
-        <v>2503.10596210668</v>
+        <v>1573.77769186803</v>
       </c>
       <c r="C27" t="n">
-        <v>-15435.0644808738</v>
+        <v>-3002.97512390532</v>
       </c>
       <c r="D27" t="n">
-        <v>-26192.1097527933</v>
+        <v>-5425.76171507428</v>
       </c>
       <c r="E27" t="n">
-        <v>21693.0710351323</v>
+        <v>6150.53050764139</v>
       </c>
       <c r="F27" t="n">
-        <v>33034.2890682479</v>
+        <v>8573.31709881035</v>
       </c>
       <c r="G27" t="s">
         <v>10</v>
@@ -1245,7 +1245,7 @@
         <v>55</v>
       </c>
       <c r="I27" t="n">
-        <v>2448.10596210668</v>
+        <v>1518.77769186803</v>
       </c>
       <c r="J27" t="s">
         <v>11</v>
@@ -1256,19 +1256,19 @@
         <v>44621</v>
       </c>
       <c r="B28" t="n">
-        <v>5160.17375733286</v>
+        <v>5000.43006687777</v>
       </c>
       <c r="C28" t="n">
-        <v>-15133.8762383406</v>
+        <v>-10156.7293834669</v>
       </c>
       <c r="D28" t="n">
-        <v>-24346.4751955863</v>
+        <v>-18180.4449203742</v>
       </c>
       <c r="E28" t="n">
-        <v>23864.286730953</v>
+        <v>20157.5895172224</v>
       </c>
       <c r="F28" t="n">
-        <v>36297.8971982612</v>
+        <v>28181.3050541297</v>
       </c>
       <c r="G28" t="s">
         <v>10</v>
@@ -1277,7 +1277,7 @@
         <v>98</v>
       </c>
       <c r="I28" t="n">
-        <v>5062.17375733286</v>
+        <v>4902.43006687777</v>
       </c>
       <c r="J28" t="s">
         <v>11</v>
@@ -1288,19 +1288,19 @@
         <v>44652</v>
       </c>
       <c r="B29" t="n">
-        <v>9151.44443275916</v>
+        <v>8709.29270484721</v>
       </c>
       <c r="C29" t="n">
-        <v>-11016.0774678802</v>
+        <v>-18792.8318357884</v>
       </c>
       <c r="D29" t="n">
-        <v>-21962.1933871677</v>
+        <v>-33351.5771401165</v>
       </c>
       <c r="E29" t="n">
-        <v>28649.1881080931</v>
+        <v>36211.4172454828</v>
       </c>
       <c r="F29" t="n">
-        <v>39622.0856659743</v>
+        <v>50770.1625498109</v>
       </c>
       <c r="G29" t="s">
         <v>10</v>
@@ -1309,7 +1309,7 @@
         <v>97</v>
       </c>
       <c r="I29" t="n">
-        <v>9054.44443275916</v>
+        <v>8612.29270484721</v>
       </c>
       <c r="J29" t="s">
         <v>11</v>
@@ -1320,19 +1320,19 @@
         <v>44682</v>
       </c>
       <c r="B30" t="n">
-        <v>10636.1222795221</v>
+        <v>9717.16621068647</v>
       </c>
       <c r="C30" t="n">
-        <v>-10459.3782054261</v>
+        <v>-22234.4197383628</v>
       </c>
       <c r="D30" t="n">
-        <v>-21014.2558258352</v>
+        <v>-39148.5676331642</v>
       </c>
       <c r="E30" t="n">
-        <v>30554.4486740267</v>
+        <v>41668.7521597358</v>
       </c>
       <c r="F30" t="n">
-        <v>42251.8881538903</v>
+        <v>58582.9000545372</v>
       </c>
       <c r="G30" t="s">
         <v>10</v>
@@ -1341,7 +1341,7 @@
         <v>155</v>
       </c>
       <c r="I30" t="n">
-        <v>10481.1222795221</v>
+        <v>9562.16621068647</v>
       </c>
       <c r="J30" t="s">
         <v>11</v>
@@ -1352,19 +1352,19 @@
         <v>44713</v>
       </c>
       <c r="B31" t="n">
-        <v>7133.45248080796</v>
+        <v>5505.64345127063</v>
       </c>
       <c r="C31" t="n">
-        <v>-15647.8715938065</v>
+        <v>-13337.1253935064</v>
       </c>
       <c r="D31" t="n">
-        <v>-26188.6574830358</v>
+        <v>-23311.8846901603</v>
       </c>
       <c r="E31" t="n">
-        <v>27601.6845326314</v>
+        <v>24348.4122960477</v>
       </c>
       <c r="F31" t="n">
-        <v>38030.5178280251</v>
+        <v>34323.1715927015</v>
       </c>
       <c r="G31" t="s">
         <v>10</v>
@@ -1373,7 +1373,7 @@
         <v>167</v>
       </c>
       <c r="I31" t="n">
-        <v>6966.45248080796</v>
+        <v>5338.64345127063</v>
       </c>
       <c r="J31" t="s">
         <v>11</v>
@@ -1384,19 +1384,19 @@
         <v>44743</v>
       </c>
       <c r="B32" t="n">
-        <v>3642.5806897017</v>
+        <v>2489.11704989922</v>
       </c>
       <c r="C32" t="n">
-        <v>-18297.2645446826</v>
+        <v>-6374.19923132671</v>
       </c>
       <c r="D32" t="n">
-        <v>-30437.0581708712</v>
+        <v>-11066.1554509058</v>
       </c>
       <c r="E32" t="n">
-        <v>24896.2635984875</v>
+        <v>11352.4333311251</v>
       </c>
       <c r="F32" t="n">
-        <v>35076.6026354818</v>
+        <v>16044.3895507042</v>
       </c>
       <c r="G32" t="s">
         <v>10</v>
@@ -1405,7 +1405,7 @@
         <v>106</v>
       </c>
       <c r="I32" t="n">
-        <v>3536.5806897017</v>
+        <v>2383.11704989922</v>
       </c>
       <c r="J32" t="s">
         <v>11</v>
@@ -1416,19 +1416,19 @@
         <v>44774</v>
       </c>
       <c r="B33" t="n">
-        <v>2449.74642906415</v>
+        <v>1236.74677356895</v>
       </c>
       <c r="C33" t="n">
-        <v>-20194.9696178487</v>
+        <v>-3343.52069589339</v>
       </c>
       <c r="D33" t="n">
-        <v>-30989.2650566059</v>
+        <v>-5768.16783233824</v>
       </c>
       <c r="E33" t="n">
-        <v>24776.8175668063</v>
+        <v>5817.01424303128</v>
       </c>
       <c r="F33" t="n">
-        <v>34939.6952311979</v>
+        <v>8241.66137947613</v>
       </c>
       <c r="G33" t="s">
         <v>10</v>
@@ -1437,7 +1437,7 @@
         <v>128</v>
       </c>
       <c r="I33" t="n">
-        <v>2321.74642906415</v>
+        <v>1108.74677356895</v>
       </c>
       <c r="J33" t="s">
         <v>11</v>
@@ -1448,19 +1448,19 @@
         <v>44805</v>
       </c>
       <c r="B34" t="n">
-        <v>2110.11175614201</v>
+        <v>1020.39960065105</v>
       </c>
       <c r="C34" t="n">
-        <v>-20274.7187248561</v>
+        <v>-2908.7382576287</v>
       </c>
       <c r="D34" t="n">
-        <v>-29400.9319797939</v>
+        <v>-4988.69819889679</v>
       </c>
       <c r="E34" t="n">
-        <v>25106.2407563973</v>
+        <v>4949.53745893081</v>
       </c>
       <c r="F34" t="n">
-        <v>35258.0040711066</v>
+        <v>7029.4974001989</v>
       </c>
       <c r="G34" t="s">
         <v>10</v>
@@ -1469,7 +1469,7 @@
         <v>98</v>
       </c>
       <c r="I34" t="n">
-        <v>2012.11175614201</v>
+        <v>922.399600651055</v>
       </c>
       <c r="J34" t="s">
         <v>11</v>
@@ -1480,19 +1480,19 @@
         <v>44835</v>
       </c>
       <c r="B35" t="n">
-        <v>2470.47661160554</v>
+        <v>1086.39736873022</v>
       </c>
       <c r="C35" t="n">
-        <v>-19100.5050298679</v>
+        <v>-3261.72889103639</v>
       </c>
       <c r="D35" t="n">
-        <v>-30804.6154050553</v>
+        <v>-5563.48789418066</v>
       </c>
       <c r="E35" t="n">
-        <v>24895.1137224442</v>
+        <v>5434.52362849683</v>
       </c>
       <c r="F35" t="n">
-        <v>37844.0538089657</v>
+        <v>7736.2826316411</v>
       </c>
       <c r="G35" t="s">
         <v>10</v>
@@ -1501,7 +1501,7 @@
         <v>118</v>
       </c>
       <c r="I35" t="n">
-        <v>2352.47661160554</v>
+        <v>968.39736873022</v>
       </c>
       <c r="J35" t="s">
         <v>11</v>
@@ -1512,19 +1512,19 @@
         <v>44866</v>
       </c>
       <c r="B36" t="n">
-        <v>2344.21834952004</v>
+        <v>1268.7177523408</v>
       </c>
       <c r="C36" t="n">
-        <v>-19676.7448317063</v>
+        <v>-4007.77128069096</v>
       </c>
       <c r="D36" t="n">
-        <v>-34451.2820304384</v>
+        <v>-6800.97585001383</v>
       </c>
       <c r="E36" t="n">
-        <v>24413.1805983112</v>
+        <v>6545.20678537256</v>
       </c>
       <c r="F36" t="n">
-        <v>36040.6774615129</v>
+        <v>9338.41135469543</v>
       </c>
       <c r="G36" t="s">
         <v>10</v>
@@ -1533,7 +1533,7 @@
         <v>120</v>
       </c>
       <c r="I36" t="n">
-        <v>2224.21834952004</v>
+        <v>1148.7177523408</v>
       </c>
       <c r="J36" t="s">
         <v>11</v>
